--- a/analyzes/Execution Results.xlsx
+++ b/analyzes/Execution Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoogleDrive\USP\Mestrado\1º Período\SSC5906 - Engenharia de Software Experimental\Experimento\Resultados_mt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3423B0CD-BFBD-4E92-AFB4-376B423DF1CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DFCB04-4F51-41A8-BDA2-75E3666718BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="3" xr2:uid="{B5B55D40-2CCC-49DC-A42D-814F6A3BB04F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{B5B55D40-2CCC-49DC-A42D-814F6A3BB04F}"/>
   </bookViews>
   <sheets>
     <sheet name="MPTitle" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,79 @@
     <sheet name="SwapJD" sheetId="3" r:id="rId3"/>
     <sheet name="Top1Absent" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">MPTitle!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">MPTitle!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">MPublished!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">MPublished!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">MPublished!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">MPublished!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">MPublished!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">MPublished!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">MPublished!$E$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">MPublished!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">MPublished!$F$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">MPublished!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">MPTitle!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">MPublished!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">MPublished!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">MPublished!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">MPublished!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">MPublished!$D$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">MPublished!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">MPublished!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">MPublished!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">MPublished!$F$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">MPublished!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">MPTitle!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">SwapJD!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">SwapJD!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">SwapJD!$C$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">SwapJD!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">SwapJD!$D$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">SwapJD!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">SwapJD!$E$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">SwapJD!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">SwapJD!$F$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">SwapJD!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">MPTitle!$D$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Top1Absent!$B$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Top1Absent!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Top1Absent!$C$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Top1Absent!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Top1Absent!$D$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Top1Absent!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Top1Absent!$E$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Top1Absent!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Top1Absent!$F$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Top1Absent!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">MPTitle!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Top1Absent!$B$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Top1Absent!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Top1Absent!$C$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Top1Absent!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Top1Absent!$D$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Top1Absent!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Top1Absent!$E$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Top1Absent!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Top1Absent!$F$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Top1Absent!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">MPTitle!$E$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Top1Absent!$B$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Top1Absent!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Top1Absent!$C$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Top1Absent!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Top1Absent!$D$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Top1Absent!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Top1Absent!$E$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Top1Absent!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Top1Absent!$F$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Top1Absent!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">MPTitle!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">MPTitle!$F$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">MPTitle!$F$2:$F$34</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -83,6 +155,30 @@
   <si>
     <t>IEEE*</t>
   </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>IEEE v1</t>
+  </si>
+  <si>
+    <t>IEEE v2</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +225,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -319,11 +421,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -331,6 +457,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,22 +484,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,115 +492,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="90">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <fill>
@@ -523,6 +542,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -530,15 +558,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -682,6 +701,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -689,15 +717,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -738,770 +757,8 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1551,7 +808,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1697,6 +954,270 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1726,154 +1247,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2019,6 +1393,270 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2046,6 +1684,496 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2203,38 +2331,3250 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E48B7060-7397-45A0-B23F-4B53F7CD22CD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>ACM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AC3E7C8F-9483-45CD-9F53-7FB347B15836}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>IEEE v1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0CF5E87B-75E2-4864-A721-0AEDD5BC8447}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>IEEE v2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{77110381-9E45-452A-A0EC-D23086D2D613}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>SciDirect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{16F38D6B-6DF1-4424-85B6-5154001BCB34}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Springer</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>ROCOA every 30 iterations</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>ROCOA every 30 iterations</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{357CA71E-7360-4B86-B06A-9672A3B67B8C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>ACM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F8661477-528A-4036-8D89-6BB8E922D93B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>IEEE v1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A90FC98C-F708-430A-8A9B-FC68F8FE7685}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>IEEE v2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{69656860-27CF-4CFE-A631-BB2FF1D4861A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>SciDirect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{86F35339-D94D-4579-9E89-41FE6C508CE3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Springer</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>ROCOF every 30 iterations</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>ROCOF every 30 iterations</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{7CC7F838-7B36-4F39-B2E8-E8FC70A74AF0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>ACM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D6AB601F-D611-4302-956E-2CE4570F974D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>IEEE v1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EEEAACE9-9336-4E63-AA15-0ED8187A02E3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>IEEE v2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C25FE34D-CA6F-4F19-B88A-4CC0EC1365B8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>SciDirect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E2C118FD-E556-4430-8F6E-85732298DA6C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>Springer</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>ROCOF every 30 iterations</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>ROCOF every 30 iterations</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.47</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.49</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{3DE7EEF6-92BB-45C1-A7D0-00AE0513A1DD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>ACM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8CF02960-D0E6-4E2D-85ED-6839C63D86FE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>IEEE v1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{88A3C6E0-8703-49CD-B2BE-83C78547F63F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:v>IEEE v2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{246CD6AE-4491-4D65-90D7-7D0D8AD94804}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:v>SciDirect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9E9F3782-F082-498F-AE6C-C9CB69FFE9D4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:v>Springer</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>ROCOA every 30 iterations</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>ROCOA every 30 iterations</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F1C4A1-F206-4D65-8D57-3AB67DA72838}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6272212" y="2767011"/>
+              <a:ext cx="4814888" cy="2843213"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC804D3C-C4C5-47B5-A74E-6E4612291A87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5948362" y="2747962"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56047B67-EF0E-49DF-96DE-A33EA1DABA62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6376987" y="2586037"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134468</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D1DF6D-E514-4673-994A-C26B8175E3C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6174443" y="4022911"/>
+              <a:ext cx="4885764" cy="2991969"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B17BDBCA-5419-4D2D-A0A0-03394592A3A9}" name="MPTitle" displayName="MPTitle" ref="A1:F37" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:F37" xr:uid="{63F09EFD-8FA9-4EEB-9546-C8FA743C785E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{749E3E32-8CC9-4DB6-82B6-7204434D5C54}" name=" " dataDxfId="87"/>
     <tableColumn id="2" xr3:uid="{61C2BA34-BDDF-48E4-B7EC-9A8AE30F6483}" name="ACM" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{059F4D0E-1B14-4ACB-BBFD-14525F587565}" name="IEEE*" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{6AD669CD-7F5E-4B0B-BAFD-FB024D79F65C}" name="IEEE" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{AA3FF971-9EC7-4CBF-BA38-46949951CAD4}" name="SciDirect" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{7A3AB77B-DEA4-47F9-9E8D-14E270491951}" name="Springer" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{059F4D0E-1B14-4ACB-BBFD-14525F587565}" name="IEEE v1" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{6AD669CD-7F5E-4B0B-BAFD-FB024D79F65C}" name="IEEE v2" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{AA3FF971-9EC7-4CBF-BA38-46949951CAD4}" name="SciDirect" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{7A3AB77B-DEA4-47F9-9E8D-14E270491951}" name="Springer" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BB6DEDD-651A-467F-B0F9-D55B4147654B}" name="Tabela25" displayName="Tabela25" ref="A1:F37" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BB6DEDD-651A-467F-B0F9-D55B4147654B}" name="Tabela25" displayName="Tabela25" ref="A1:F37" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:F37" xr:uid="{17CC904F-B672-495B-8270-76E39DF14D04}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1A4AE21A-DCEC-4A0C-96B7-F4331A5A6FE5}" name=" " dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{172E94BE-B40C-498A-94E8-56D06B286217}" name="ACM" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{14BC4A5F-6B8F-4AC8-88D2-EA98194C3F59}" name="IEEE*" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{480792E7-5D1A-4DE1-A934-723A88721A40}" name="IEEE" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{D8DCB78C-DC83-4214-AFFF-8AF632FDAFC8}" name="SciDirect" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{1FB1EEB2-D51B-4D50-AFED-7779EB04AA9F}" name="Springer" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{1A4AE21A-DCEC-4A0C-96B7-F4331A5A6FE5}" name=" " dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{172E94BE-B40C-498A-94E8-56D06B286217}" name="ACM" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{14BC4A5F-6B8F-4AC8-88D2-EA98194C3F59}" name="IEEE v1" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{480792E7-5D1A-4DE1-A934-723A88721A40}" name="IEEE v2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D8DCB78C-DC83-4214-AFFF-8AF632FDAFC8}" name="SciDirect" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{1FB1EEB2-D51B-4D50-AFED-7779EB04AA9F}" name="Springer" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{228567EC-7036-4D04-93DC-1A89B3AFA701}" name="Tabela12" displayName="Tabela12" ref="H3:K8" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{228567EC-7036-4D04-93DC-1A89B3AFA701}" name="Tabela12" displayName="Tabela12" ref="H3:K8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="H3:K8" xr:uid="{78676026-EE6B-4FED-B0B5-962D6CAA3967}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2242,31 +5582,31 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18D577D2-D845-4613-8F88-56E796DCEAD1}" name="Engine" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{63816E85-1F9F-4352-B2DB-59509435C107}" name="Shapiro" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{22086A9B-D1FB-47E7-BE62-B765D0F345D1}" name="P" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{1D14ABEC-7B7B-4065-9237-7B58FE0F5DB1}" name="Normal (Y/N)" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{18D577D2-D845-4613-8F88-56E796DCEAD1}" name="Engine" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{63816E85-1F9F-4352-B2DB-59509435C107}" name="Shapiro" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{22086A9B-D1FB-47E7-BE62-B765D0F345D1}" name="P" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1D14ABEC-7B7B-4065-9237-7B58FE0F5DB1}" name="Normal (Y/N)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F0530DB1-E7ED-44F2-BC4C-497569F36D5E}" name="Tabela13" displayName="Tabela13" ref="H11:I12" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F0530DB1-E7ED-44F2-BC4C-497569F36D5E}" name="Tabela13" displayName="Tabela13" ref="H11:I12" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="H11:I12" xr:uid="{803D9175-F030-4879-803B-75B5A230E2F4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72730B96-1C08-4762-9229-7AE1C6671C2A}" name="Statistic " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{85F86695-265A-40B8-8035-8B6FAB77CFD6}" name="P" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{72730B96-1C08-4762-9229-7AE1C6671C2A}" name="Statistic " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{85F86695-265A-40B8-8035-8B6FAB77CFD6}" name="P" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C63B7BE4-280B-4428-9C75-68E333CFBB47}" name="Tabela6" displayName="Tabela6" ref="H3:K8" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C63B7BE4-280B-4428-9C75-68E333CFBB47}" name="Tabela6" displayName="Tabela6" ref="H3:K8" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78" totalsRowBorderDxfId="77">
   <autoFilter ref="H3:K8" xr:uid="{CD645CAC-8BDA-453E-A3AD-175BBFCD3D67}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2274,60 +5614,60 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{27F35985-B942-4BB9-93F5-4EDB6E1239E0}" name="Engine" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{94ECAF0B-0ED5-4211-8C2C-E1AA5ADFF8DD}" name="Shapiro" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{FEBFBD61-67A7-4C6E-ACC5-A294319AB057}" name="P" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{4AA1F89B-BD6A-4E76-8D99-CD53A0D88BDE}" name="Normal (Y/N)" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{27F35985-B942-4BB9-93F5-4EDB6E1239E0}" name="Engine" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{94ECAF0B-0ED5-4211-8C2C-E1AA5ADFF8DD}" name="Shapiro" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{FEBFBD61-67A7-4C6E-ACC5-A294319AB057}" name="P" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{4AA1F89B-BD6A-4E76-8D99-CD53A0D88BDE}" name="Normal (Y/N)" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{406397A2-29D1-48BC-9A50-A3311FD8A566}" name="Tabela7" displayName="Tabela7" ref="H11:I12" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowBorderDxfId="50" tableBorderDxfId="51" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{406397A2-29D1-48BC-9A50-A3311FD8A566}" name="Tabela7" displayName="Tabela7" ref="H11:I12" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <autoFilter ref="H11:I12" xr:uid="{001997F4-6FC3-4D6D-8393-5A022449D947}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{144F67EA-6C25-42EA-B1F3-AE02996DC6A0}" name="Statistic " dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{A89DC695-69B5-4B33-9A7F-F6E4D86CB1A8}" name="P" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{144F67EA-6C25-42EA-B1F3-AE02996DC6A0}" name="Statistic " dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{A89DC695-69B5-4B33-9A7F-F6E4D86CB1A8}" name="P" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{338B4457-8159-48D4-AE78-A10C59088370}" name="Tabela2" displayName="Tabela2" ref="A1:F37" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{338B4457-8159-48D4-AE78-A10C59088370}" name="Tabela2" displayName="Tabela2" ref="A1:F37" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:F37" xr:uid="{64C735A0-A5E7-4863-8BB4-48AE59F8CDFC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{02EDB691-09A7-4EF7-B181-EAC45A215758}" name=" " dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{69236398-25AB-4F22-848D-CDE4466E2755}" name="ACM" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{2C7A2DDC-A618-481C-AD3A-1430F71DC3AA}" name="IEEE*" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{6B54BA45-A419-4BAD-AC50-D2B171F44E45}" name="IEEE" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F3B0F0A6-2BA1-4302-9261-6537E913F010}" name="SciDirect" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{047D0661-5EDE-4326-8575-6AA744BB903F}" name="Springer" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{02EDB691-09A7-4EF7-B181-EAC45A215758}" name=" " dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{69236398-25AB-4F22-848D-CDE4466E2755}" name="ACM" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{2C7A2DDC-A618-481C-AD3A-1430F71DC3AA}" name="IEEE v1" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{6B54BA45-A419-4BAD-AC50-D2B171F44E45}" name="IEEE v2" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{F3B0F0A6-2BA1-4302-9261-6537E913F010}" name="SciDirect" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{047D0661-5EDE-4326-8575-6AA744BB903F}" name="Springer" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6D7E72CC-0CA4-4A2C-A5DA-13D411A2DE6F}" name="Tabela8" displayName="Tabela8" ref="H11:I12" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6D7E72CC-0CA4-4A2C-A5DA-13D411A2DE6F}" name="Tabela8" displayName="Tabela8" ref="H11:I12" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <autoFilter ref="H11:I12" xr:uid="{77FD02DF-9A51-4405-BEE4-1644B8393808}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C12CFE19-EA6A-41CB-A0D1-96BE568386E5}" name="Statistic " dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{7880B08F-50D5-44B2-90DE-7794E9BF4C9E}" name="P" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{C12CFE19-EA6A-41CB-A0D1-96BE568386E5}" name="Statistic " dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{7880B08F-50D5-44B2-90DE-7794E9BF4C9E}" name="P" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2394B1A4-DD7A-44AC-9ECF-873521EE2D1A}" name="Tabela9" displayName="Tabela9" ref="H3:K8" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2394B1A4-DD7A-44AC-9ECF-873521EE2D1A}" name="Tabela9" displayName="Tabela9" ref="H3:K8" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="H3:K8" xr:uid="{1B1F3C51-90AF-4E6D-8B6D-A346A45DB09C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2335,32 +5675,32 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2CE14643-D9CE-4E42-B159-08A1343E2ADA}" name="Engine" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{6376975B-EE7A-4B49-BE3C-2DD4689A49F6}" name="Shapiro" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{42F1D75D-25FD-46B1-AB12-5BF344E9AE24}" name="P" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{DE1BCFF5-1928-4421-ABEE-22045A1B81C7}" name="Normal (Y/N)" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{2CE14643-D9CE-4E42-B159-08A1343E2ADA}" name="Engine" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{6376975B-EE7A-4B49-BE3C-2DD4689A49F6}" name="Shapiro" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{42F1D75D-25FD-46B1-AB12-5BF344E9AE24}" name="P" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{DE1BCFF5-1928-4421-ABEE-22045A1B81C7}" name="Normal (Y/N)" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2FFDC8F-5633-4CD5-8049-5E5939018267}" name="Tabela24" displayName="Tabela24" ref="A1:F37" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2FFDC8F-5633-4CD5-8049-5E5939018267}" name="Tabela24" displayName="Tabela24" ref="A1:F37" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:F37" xr:uid="{878E8C62-E941-41C9-A52A-C14E2DC5C007}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{816EC126-3548-4F9B-88B3-540B9D1BF04F}" name=" " dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{ECE13DD5-498C-431A-80BB-A7226AD1E5F8}" name="ACM" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{287B542E-4C15-4442-A693-8BD933137311}" name="IEEE*" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{76DD9865-E104-4DD4-B633-710E0E59C241}" name="IEEE" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4548B0C3-0AE0-4164-A54B-5D2AA4D86C15}" name="SciDirect" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{88750227-A64E-4728-AB4A-86DB76D24D72}" name="Springer" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{816EC126-3548-4F9B-88B3-540B9D1BF04F}" name=" " dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{ECE13DD5-498C-431A-80BB-A7226AD1E5F8}" name="ACM" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{287B542E-4C15-4442-A693-8BD933137311}" name="IEEE v1" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{76DD9865-E104-4DD4-B633-710E0E59C241}" name="IEEE v2" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{4548B0C3-0AE0-4164-A54B-5D2AA4D86C15}" name="SciDirect" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{88750227-A64E-4728-AB4A-86DB76D24D72}" name="Springer" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1DD9D62B-5438-4C4B-A023-15FD8B4BC492}" name="Tabela10" displayName="Tabela10" ref="H3:K8" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1DD9D62B-5438-4C4B-A023-15FD8B4BC492}" name="Tabela10" displayName="Tabela10" ref="H3:K8" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="H3:K8" xr:uid="{8228EC4C-D745-46BF-B335-C4754DF4AA5F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2368,24 +5708,24 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3A37FAC1-EC32-4C76-B171-17D7AC7BF263}" name="Engine" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{4D085F38-846E-4052-A7C2-FC9353739BAC}" name="Shapiro" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{2CBFFE57-48CA-4645-95FE-EABBC0E28528}" name="P" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{83E9CE02-C667-490F-ABF8-2CBE294271E1}" name="Normal (Y/N)" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{3A37FAC1-EC32-4C76-B171-17D7AC7BF263}" name="Engine" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{4D085F38-846E-4052-A7C2-FC9353739BAC}" name="Shapiro" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{2CBFFE57-48CA-4645-95FE-EABBC0E28528}" name="P" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{83E9CE02-C667-490F-ABF8-2CBE294271E1}" name="Normal (Y/N)" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{24657A3B-4201-4FBC-BA33-15220E9261D0}" name="Tabela11" displayName="Tabela11" ref="H11:I12" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{24657A3B-4201-4FBC-BA33-15220E9261D0}" name="Tabela11" displayName="Tabela11" ref="H11:I12" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="H11:I12" xr:uid="{92E787BD-F293-4C09-8EB7-F6DDBE48F687}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{02C2B81B-9B5D-45F8-9F2D-0B7A5FBDD250}" name="Statistic " dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{98FC1778-5DE6-43FE-879E-20A2CF921740}" name="P" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{02C2B81B-9B5D-45F8-9F2D-0B7A5FBDD250}" name="Statistic " dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{98FC1778-5DE6-43FE-879E-20A2CF921740}" name="P" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2690,8 +6030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23DC9CB-FEAB-4B7B-86C6-952E3F2CBBC3}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,10 +6051,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2742,12 +6082,12 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2768,16 +6108,16 @@
       <c r="F3" s="3">
         <v>0.1</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2800,16 +6140,16 @@
       <c r="F4" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>0.43787500000000001</v>
       </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2832,16 +6172,16 @@
       <c r="F5" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>0.90802300000000002</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>8.659E-3</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2864,16 +6204,16 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>0.87376100000000001</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>1.189E-3</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2896,16 +6236,16 @@
       <c r="F7" s="3">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>0.87376100000000001</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>1.189E-3</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2928,16 +6268,16 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>0.64869299999999996</v>
       </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18" t="s">
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3004,10 +6344,10 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3030,10 +6370,10 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>79.404815545051704</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="16">
         <v>2.3285388435865699E-16</v>
       </c>
     </row>
@@ -3559,10 +6899,11 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3571,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8598880-1EA5-4CD2-B9A7-AAFE736ADD1C}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,10 +6933,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3626,8 +6967,8 @@
       <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3649,16 +6990,16 @@
       <c r="F3" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3681,16 +7022,16 @@
       <c r="F4" s="3">
         <v>0.13333333333333333</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>0.96538299999999999</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>0.36413899999999999</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3713,16 +7054,16 @@
       <c r="F5" s="3">
         <v>0.1</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>0.95683499999999999</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>0.20999899999999999</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3745,16 +7086,16 @@
       <c r="F6" s="3">
         <v>0.1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>0.96465299999999998</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>0.34797699999999998</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3777,16 +7118,16 @@
       <c r="F7" s="3">
         <v>0.1</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>0.53354000000000001</v>
       </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3809,16 +7150,16 @@
       <c r="F8" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>0.83504299999999998</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>1.6200000000000001E-4</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3885,10 +7226,10 @@
       <c r="F11" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3911,10 +7252,10 @@
       <c r="F12" s="3">
         <v>0.1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>139.968776775186</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="16">
         <v>2.8663495323829598E-29</v>
       </c>
     </row>
@@ -4440,10 +7781,11 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4452,8 +7794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6625FAF6-6B77-40F3-831B-43A5AA87246B}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4474,10 +7816,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4508,8 +7850,8 @@
       <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4531,16 +7873,16 @@
       <c r="F3" s="4">
         <v>0.98760233918128659</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4563,16 +7905,16 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>0.98184300000000002</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>0.84007699999999996</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4595,16 +7937,16 @@
       <c r="F5" s="4">
         <v>0.9933333333333334</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>0.92336099999999999</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>2.2726E-2</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4627,16 +7969,16 @@
       <c r="F6" s="4">
         <v>0.87418799524062674</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>0.94478899999999999</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>9.3689999999999996E-2</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4659,16 +8001,16 @@
       <c r="F7" s="4">
         <v>0.98444444444444434</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>0.96914400000000001</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>0.45691100000000001</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4691,16 +8033,16 @@
       <c r="F8" s="4">
         <v>0.96274509803921571</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>0.87120699999999995</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>1.034E-3</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4767,10 +8109,10 @@
       <c r="F11" s="4">
         <v>0.99259259259259258</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4793,10 +8135,10 @@
       <c r="F12" s="4">
         <v>0.97152046783625723</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>99.066498681926902</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="16">
         <v>1.5543913299804399E-20</v>
       </c>
     </row>
@@ -5322,20 +8664,21 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E516CF-1252-43BF-A65B-38A1E73C26B5}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,7 +8689,7 @@
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5354,10 +8697,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5366,7 +8709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5388,11 +8731,26 @@
       <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5411,20 +8769,43 @@
       <c r="F3" s="3">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <f>_xlfn.QUARTILE.INC(B$2:B$34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:R7" si="0">_xlfn.QUARTILE.INC(C$2:C$34,0)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="P3">
+        <f>_xlfn.QUARTILE.INC(D$2:D$34,0)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5443,20 +8824,43 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>0.167709</v>
       </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <f>_xlfn.QUARTILE.INC($B$2:$B$34,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="P4">
+        <f>_xlfn.QUARTILE.INC(D$2:D$34,1)</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.QUARTILE.INC(E$2:E$34,1)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="R4">
+        <f>_xlfn.QUARTILE.INC(F$2:F$34,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5475,20 +8879,43 @@
       <c r="F5" s="3">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>0.96506800000000004</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>0.357097</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <f>_xlfn.QUARTILE.INC($B$2:$B$34,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="P5">
+        <f>_xlfn.QUARTILE.INC(D$2:D$34,2)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.QUARTILE.INC(E$2:E$34,2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="R5">
+        <f>_xlfn.QUARTILE.INC(F$2:F$34,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5507,20 +8934,43 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>0.95091099999999995</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>0.141432</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <f>_xlfn.QUARTILE.INC($B$2:$B$34,3)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="P6">
+        <f>_xlfn.QUARTILE.INC(D$2:D$34,3)</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q6">
+        <f>_xlfn.QUARTILE.INC(E$2:E$34,3)</f>
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <f>_xlfn.QUARTILE.INC(F$2:F$34,3)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5539,20 +8989,43 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>0.91666199999999998</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>1.4825E-2</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7">
+        <f>_xlfn.QUARTILE.INC($B$2:$B$34,4)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="P7">
+        <f>_xlfn.QUARTILE.INC(D$2:D$34,4)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="Q7">
+        <f>_xlfn.QUARTILE.INC(E$2:E$34,4)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R7">
+        <f>_xlfn.QUARTILE.INC(F$2:F$34,4)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5571,20 +9044,20 @@
       <c r="F8" s="3">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>0.71878799999999998</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5603,8 +9076,31 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="4">
+        <f>AVERAGE(B2:B34)</f>
+        <v>2.0202020202020202E-3</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" ref="O9:R9" si="1">AVERAGE(C2:C34)</f>
+        <v>0.15555555555555559</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82424242424242433</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2626262626262641E-2</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3232323232323229E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5627,8 +9123,31 @@
         <v>15</v>
       </c>
       <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <f>N7-N3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:R10" si="2">O7-O3</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5647,14 +9166,14 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5673,14 +9192,14 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>163.02932222539499</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="16">
         <v>3.2746403200233001E-34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5700,7 +9219,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5720,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5740,7 +9259,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6129,19 +9648,19 @@
         <v>2.0202020202020202E-3</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:F35" si="0">SUM(C2:C34) / 33</f>
+        <f t="shared" ref="C35:F35" si="3">SUM(C2:C34) / 33</f>
         <v>0.15555555555555559</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" ref="D35" si="1">SUM(D2:D34) / 33</f>
+        <f t="shared" ref="D35" si="4">SUM(D2:D34) / 33</f>
         <v>0.82424242424242433</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2626262626262641E-2</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3232323232323229E-2</v>
       </c>
     </row>
@@ -6154,19 +9673,19 @@
         <v>0</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:F36" si="2">MEDIAN(C2:C34)</f>
+        <f t="shared" ref="C36:F36" si="5">MEDIAN(C2:C34)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" ref="D36" si="3">MEDIAN(D2:D34)</f>
+        <f t="shared" ref="D36" si="6">MEDIAN(D2:D34)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6179,19 +9698,19 @@
         <v>8.0768614099593315E-3</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:F37" si="4">STDEV(C2:C34)</f>
+        <f t="shared" ref="C37:F37" si="7">STDEV(C2:C34)</f>
         <v>7.0546806106668247E-2</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" ref="D37" si="5">STDEV(D2:D34)</f>
+        <f t="shared" ref="D37" si="8">STDEV(D2:D34)</f>
         <v>7.3726562788496125E-2</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.7695195248910013E-2</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.2792326851516659E-2</v>
       </c>
     </row>
@@ -6202,10 +9721,11 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/analyzes/Execution Results.xlsx
+++ b/analyzes/Execution Results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClaudineiBJr\Documents\Repositories\mt_project\analyzes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DFCB04-4F51-41A8-BDA2-75E3666718BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778E06F-4C66-4963-80BD-C7386AB03BC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{B5B55D40-2CCC-49DC-A42D-814F6A3BB04F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{B5B55D40-2CCC-49DC-A42D-814F6A3BB04F}"/>
   </bookViews>
   <sheets>
     <sheet name="MPTitle" sheetId="1" r:id="rId1"/>
     <sheet name="MPublished" sheetId="2" r:id="rId2"/>
-    <sheet name="SwapJD" sheetId="3" r:id="rId3"/>
+    <sheet name="MPShuffleJD" sheetId="3" r:id="rId3"/>
     <sheet name="Top1Absent" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -32,65 +32,35 @@
     <definedName name="_xlchart.v1.18" hidden="1">MPublished!$F$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">MPublished!$F$2:$F$34</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">MPTitle!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">MPublished!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">MPublished!$B$2:$B$34</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">MPublished!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">MPublished!$C$2:$C$34</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">MPublished!$D$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">MPublished!$D$2:$D$34</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">MPublished!$E$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">MPublished!$E$2:$E$34</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">MPublished!$F$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">MPublished!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">MPShuffleJD!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">MPShuffleJD!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">MPShuffleJD!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">MPShuffleJD!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">MPShuffleJD!$D$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">MPShuffleJD!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">MPShuffleJD!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">MPShuffleJD!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">MPShuffleJD!$F$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">MPShuffleJD!$F$2:$F$34</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">MPTitle!$C$2:$C$34</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">SwapJD!$B$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">SwapJD!$B$2:$B$34</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">SwapJD!$C$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">SwapJD!$C$2:$C$34</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">SwapJD!$D$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">SwapJD!$D$2:$D$34</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">SwapJD!$E$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">SwapJD!$E$2:$E$34</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">SwapJD!$F$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">SwapJD!$F$2:$F$34</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Top1Absent!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Top1Absent!$B$2:$B$34</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Top1Absent!$C$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Top1Absent!$C$2:$C$34</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Top1Absent!$D$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Top1Absent!$D$2:$D$34</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Top1Absent!$E$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Top1Absent!$E$2:$E$34</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Top1Absent!$F$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Top1Absent!$F$2:$F$34</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">MPTitle!$D$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Top1Absent!$B$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Top1Absent!$B$2:$B$34</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Top1Absent!$C$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Top1Absent!$C$2:$C$34</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Top1Absent!$D$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Top1Absent!$D$2:$D$34</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Top1Absent!$E$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Top1Absent!$E$2:$E$34</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Top1Absent!$F$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Top1Absent!$F$2:$F$34</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">MPTitle!$D$2:$D$34</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Top1Absent!$B$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Top1Absent!$B$2:$B$34</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Top1Absent!$C$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Top1Absent!$C$2:$C$34</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Top1Absent!$D$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Top1Absent!$D$2:$D$34</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Top1Absent!$E$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Top1Absent!$E$2:$E$34</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Top1Absent!$F$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Top1Absent!$F$2:$F$34</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">MPTitle!$E$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Top1Absent!$B$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Top1Absent!$B$2:$B$34</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Top1Absent!$C$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Top1Absent!$C$2:$C$34</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Top1Absent!$D$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Top1Absent!$D$2:$D$34</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Top1Absent!$E$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Top1Absent!$E$2:$E$34</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Top1Absent!$F$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Top1Absent!$F$2:$F$34</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">MPTitle!$E$2:$E$34</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">MPTitle!$F$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">MPTitle!$F$2:$F$34</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2666,27 +2636,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2696,7 +2666,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7CC7F838-7B36-4F39-B2E8-E8FC70A74AF0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>ACM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2709,7 +2679,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D6AB601F-D611-4302-956E-2CE4570F974D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>IEEE v1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2722,7 +2692,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EEEAACE9-9336-4E63-AA15-0ED8187A02E3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>IEEE v2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2735,7 +2705,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C25FE34D-CA6F-4F19-B88A-4CC0EC1365B8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>SciDirect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2748,7 +2718,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E2C118FD-E556-4430-8F6E-85732298DA6C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Springer</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2831,27 +2801,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2861,7 +2831,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3DE7EEF6-92BB-45C1-A7D0-00AE0513A1DD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>ACM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2874,7 +2844,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8CF02960-D0E6-4E2D-85ED-6839C63D86FE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>IEEE v1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2887,7 +2857,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{88A3C6E0-8703-49CD-B2BE-83C78547F63F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>IEEE v2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2900,7 +2870,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{246CD6AE-4491-4D65-90D7-7D0D8AD94804}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>SciDirect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2913,7 +2883,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9E9F3782-F082-498F-AE6C-C9CB69FFE9D4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>Springer</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5509,8 +5479,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6174443" y="4022911"/>
-              <a:ext cx="4885764" cy="2991969"/>
+              <a:off x="6207500" y="4019549"/>
+              <a:ext cx="4915460" cy="2991969"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7794,7 +7764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6625FAF6-6B77-40F3-831B-43A5AA87246B}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -8677,7 +8647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E516CF-1252-43BF-A65B-38A1E73C26B5}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
